--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/13_Bartın_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/13_Bartın_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{443D6AAA-6F3E-408C-BA1F-869F7037DF3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{33571111-1CF6-4FB3-9F56-3BC89C49651F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="688" xr2:uid="{92A685D6-3A4B-46C7-8FC9-AF9C1D823384}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="688" xr2:uid="{AC90FF51-B793-4CC5-86C4-9BAFB1B5E136}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="135" r:id="rId1"/>
@@ -965,14 +965,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{241A5D4F-031D-4E5D-B7F9-666BBE366869}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{9A730269-B1B7-408C-B827-AA3A782F5C11}"/>
-    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{A1A864DC-95F9-4E83-B279-86C36E292BD0}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{EFBE7A85-3A34-492C-9A55-64A9D58C3BD0}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{C2262496-257B-4BFF-A56E-5A2228B1568E}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{0B66D250-D2AD-4D88-930D-8E4A09BC5FA4}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{0E688675-DA42-4570-9EE3-049EDBA97A38}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{99EB9D42-6925-4FEC-871B-FE4AC94DD1CF}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{F09A33D1-B975-470C-90CE-F3B59D7F25A9}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{23F11C8B-EB2C-4B6B-83FF-3D69E9DC5EA7}"/>
+    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{2E831C3C-06EE-4C54-B5F8-F18D7F534C83}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{D0513603-23A0-41BB-9C78-3E590CBD39D0}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{1771620B-C7F1-4229-8001-E1C47CBD4F50}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{31A54B17-337F-4CD5-BA3E-FC6233E69B8A}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{EFEE9ED7-ED77-4822-A2F8-7E8342EEF054}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{167072A5-8407-42A9-B84D-696558CFC2A0}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1342,7 +1342,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D04A9E-9962-4030-A361-BCAD391B924D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB733BAF-3654-497D-A95E-E46306748238}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2599,7 +2599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FFD0840-8AE4-47A9-BD66-A5E39F5F0D58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1FD1F7-9535-4F58-A4EA-7F8F8062B02A}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3856,7 +3856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A52385-52D2-4291-99FD-CA6F35630F4C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01947A05-B905-4B2E-91F7-C7EEB8FEB4BE}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5105,7 +5105,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA5D145-DDF8-48E8-8744-F6CBB1634BBF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D60B3512-DAAA-471F-85B7-DD92F5E81D6D}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6350,7 +6350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25F073EB-FF0F-46C9-940C-D58592ED4456}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B8A124-BF84-448B-87B5-47F652020E1F}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7609,7 +7609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17AE68AE-7FEF-4502-9B40-5AB685AFCAB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D43E74-718E-4322-B423-4D902C8928BA}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8860,7 +8860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE0B331D-1DA1-4EC6-95E5-4599A2165958}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79863145-0AD3-4CFA-A6FA-CAEE643A9C68}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10111,7 +10111,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{264EEFE3-0828-4A3B-86BA-C53194E89C3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3521B3FE-6850-467E-B541-C94D6C853AF5}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11364,7 +11364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF2E36D-4624-428B-B9B7-35CD07663AA3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD784D17-7F37-4A80-8FEB-CBB467CCA027}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12623,7 +12623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C299069E-7594-4CF5-86CC-5944A0403491}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58FEC7D0-14A6-45F4-9A84-C46DF957FF5E}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13878,7 +13878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A704BA28-0750-4CEF-B8AE-5D0039E61A60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37A7496D-0E6E-4D3B-85F2-6E2DF9E29BE3}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15133,7 +15133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D581CF68-9173-4FAA-9CF7-E23A226F21EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194CACF1-E9DC-4670-8761-8FC8A74D412F}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
